--- a/infos_filtres.xlsx
+++ b/infos_filtres.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="0" windowWidth="13860" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Couleur</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Échantillon</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>Blanc</t>
   </si>
   <si>
@@ -58,6 +55,54 @@
   </si>
   <si>
     <t>122, 51, 0</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Code couleur</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>Couleur filtre</t>
+  </si>
+  <si>
+    <t>Terrestre</t>
+  </si>
+  <si>
+    <t>Désert</t>
+  </si>
+  <si>
+    <t>Marine-Terrestre</t>
+  </si>
+  <si>
+    <t>Terrestre-Désert</t>
+  </si>
+  <si>
+    <t>Désert-Marine</t>
+  </si>
+  <si>
+    <t>0, 0, 255</t>
+  </si>
+  <si>
+    <t>128. 0, 128</t>
+  </si>
+  <si>
+    <t>255, 0, 0</t>
+  </si>
+  <si>
+    <t>255, 165, 0</t>
+  </si>
+  <si>
+    <t>255, 215, 0</t>
+  </si>
+  <si>
+    <t>154, 205, 50</t>
+  </si>
+  <si>
+    <t>XX</t>
   </si>
 </sst>
 </file>
@@ -104,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +195,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD6A66D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E4AC7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7EC08"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,7 +244,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -241,8 +322,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -252,8 +349,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="93">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -292,6 +395,14 @@
     <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -330,6 +441,14 @@
     <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -659,130 +778,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>180</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>216</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="6"/>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>217</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="3"/>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>218</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>219</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="8"/>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>268</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>269</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>365</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="5"/>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>366</v>
       </c>
@@ -790,7 +973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>370</v>
       </c>
@@ -798,7 +981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>371</v>
       </c>
@@ -806,7 +989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>372</v>
       </c>
@@ -814,7 +997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>375</v>
       </c>
@@ -822,15 +1005,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>433</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>528</v>
       </c>
@@ -966,7 +1152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>567</v>
       </c>
@@ -974,7 +1160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>568</v>
       </c>
@@ -982,12 +1168,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>569</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="B35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>570</v>
       </c>
@@ -995,7 +1184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>575</v>
       </c>
@@ -1003,7 +1192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>590</v>
       </c>
@@ -1011,7 +1200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>603</v>
       </c>
@@ -1019,7 +1208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>605</v>
       </c>
@@ -1027,19 +1216,163 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:9">
       <c r="A41">
+        <v>613</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>637</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>642</v>
       </c>
-      <c r="B41">
+      <c r="B43">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>644</v>
       </c>
-      <c r="B42">
+      <c r="B44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>645</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>647</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>658</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>666</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>670</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>674</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>676</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>678</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>683</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>684</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>702</v>
+      </c>
+      <c r="B55">
         <v>4</v>
       </c>
     </row>

--- a/infos_filtres.xlsx
+++ b/infos_filtres.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -244,8 +244,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -356,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="95">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -403,6 +405,7 @@
     <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -449,6 +452,7 @@
     <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -778,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -955,10 +959,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" t="s">
@@ -967,7 +971,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -975,31 +979,31 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1007,10 +1011,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>433</v>
+        <v>366</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1018,23 +1022,23 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>528</v>
+        <v>370</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>531</v>
+        <v>371</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>533</v>
+        <v>372</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -1042,71 +1046,71 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>534</v>
+        <v>375</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>535</v>
+        <v>433</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1114,7 +1118,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1122,15 +1126,15 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -1138,111 +1142,111 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>603</v>
+        <v>568</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>605</v>
+        <v>569</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>613</v>
+        <v>570</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>637</v>
+        <v>575</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>642</v>
+        <v>590</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>644</v>
+        <v>603</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -1250,18 +1254,18 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>645</v>
+        <v>605</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>647</v>
+        <v>613</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>15</v>
@@ -1272,10 +1276,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H47" t="s">
         <v>3</v>
@@ -1286,10 +1290,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" t="s">
@@ -1298,10 +1302,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>670</v>
+        <v>644</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" t="s">
@@ -1310,10 +1314,10 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>674</v>
+        <v>645</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" t="s">
@@ -1322,10 +1326,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>676</v>
+        <v>647</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" t="s">
@@ -1334,7 +1338,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -1346,10 +1350,10 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" t="s">
@@ -1358,10 +1362,10 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" t="s">
@@ -1370,9 +1374,49 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
+        <v>674</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>676</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>678</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>683</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>684</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
         <v>702</v>
       </c>
-      <c r="B55">
+      <c r="B60">
         <v>4</v>
       </c>
     </row>

--- a/infos_filtres.xlsx
+++ b/infos_filtres.xlsx
@@ -244,8 +244,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -358,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="99">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -406,6 +410,8 @@
     <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -453,6 +459,8 @@
     <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -782,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -830,6 +838,9 @@
       <c r="B2">
         <v>2</v>
       </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
@@ -851,6 +862,9 @@
       <c r="B3">
         <v>4</v>
       </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" t="s">
         <v>5</v>
@@ -870,6 +884,9 @@
       <c r="B4">
         <v>5</v>
       </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>6</v>
@@ -889,6 +906,9 @@
       <c r="B5">
         <v>5</v>
       </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
         <v>7</v>
@@ -908,6 +928,9 @@
       <c r="B6">
         <v>6</v>
       </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" t="s">
         <v>8</v>
@@ -930,6 +953,9 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" t="s">
         <v>9</v>
@@ -952,6 +978,9 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" t="s">
         <v>10</v>
@@ -964,6 +993,9 @@
       <c r="B9">
         <v>4</v>
       </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" t="s">
         <v>11</v>
@@ -1003,58 +1035,58 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B15">
         <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>433</v>
+        <v>372</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -1062,63 +1094,60 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>528</v>
+        <v>373</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>531</v>
-      </c>
-      <c r="B22">
-        <v>9</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>533</v>
+        <v>375</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>534</v>
+        <v>433</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1126,297 +1155,353 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:2">
       <c r="A33">
+        <v>540</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>541</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>544</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>555</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
         <v>557</v>
       </c>
-      <c r="B33">
+      <c r="B37">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34">
+    <row r="38" spans="1:2">
+      <c r="A38">
         <v>560</v>
       </c>
-      <c r="B34">
+      <c r="B38">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35">
+    <row r="39" spans="1:2">
+      <c r="A39">
         <v>564</v>
       </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36">
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
         <v>565</v>
       </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37">
+      <c r="B40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
         <v>566</v>
       </c>
-      <c r="B37">
+      <c r="B41">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38">
+    <row r="42" spans="1:2">
+      <c r="A42">
         <v>567</v>
       </c>
-      <c r="B38">
+      <c r="B42">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39">
+    <row r="43" spans="1:2">
+      <c r="A43">
         <v>568</v>
       </c>
-      <c r="B39">
+      <c r="B43">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40">
+    <row r="44" spans="1:2">
+      <c r="A44">
         <v>569</v>
       </c>
-      <c r="B40">
+      <c r="B44">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41">
+    <row r="45" spans="1:2">
+      <c r="A45">
         <v>570</v>
-      </c>
-      <c r="B41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42">
-        <v>575</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43">
-        <v>590</v>
-      </c>
-      <c r="B43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44">
-        <v>603</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45">
-        <v>605</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:2">
       <c r="A46">
-        <v>613</v>
+        <v>575</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47">
-        <v>637</v>
+        <v>590</v>
       </c>
       <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="H47" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48">
-        <v>642</v>
+        <v>603</v>
       </c>
       <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>644</v>
+        <v>605</v>
       </c>
       <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>645</v>
+        <v>613</v>
       </c>
       <c r="B50">
-        <v>5</v>
-      </c>
-      <c r="H50" s="2"/>
-      <c r="I50" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="8"/>
       <c r="I51" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="B52">
-        <v>5</v>
-      </c>
-      <c r="H52" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52" s="6"/>
       <c r="I52" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="B53">
-        <v>5</v>
-      </c>
-      <c r="H53" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53" s="3"/>
       <c r="I53" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
-      <c r="H54" s="5"/>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54" s="2"/>
       <c r="I54" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="G55">
         <v>6</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>7</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="B57">
         <v>5</v>
+      </c>
+      <c r="G57">
+        <v>8</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>9</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
+        <v>676</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>678</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>683</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>684</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
         <v>702</v>
       </c>
-      <c r="B60">
+      <c r="B64">
         <v>4</v>
       </c>
     </row>

--- a/infos_filtres.xlsx
+++ b/infos_filtres.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="14000" yWindow="0" windowWidth="11600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="43">
   <si>
     <t>Couleur</t>
   </si>
@@ -103,6 +103,51 @@
   </si>
   <si>
     <t>XX</t>
+  </si>
+  <si>
+    <t>Direction du vent</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>MTD</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -244,8 +289,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -362,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="109">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -412,6 +467,11 @@
     <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -461,6 +521,11 @@
     <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -790,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -805,7 +870,7 @@
     <col min="11" max="11" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -815,135 +880,168 @@
       <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>180</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>216</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>217</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" t="s">
+      <c r="L4" s="10"/>
+      <c r="M4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>218</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" t="s">
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" t="s">
+      <c r="L5" s="12"/>
+      <c r="M5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>219</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" t="s">
+      <c r="L6" s="14"/>
+      <c r="M6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>268</v>
       </c>
@@ -953,22 +1051,22 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>7</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" t="s">
+      <c r="L7" s="13"/>
+      <c r="M7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>269</v>
       </c>
@@ -978,78 +1076,120 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>8</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>359</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9">
         <v>9</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>360</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>361</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>362</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>363</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>364</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>365</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>366</v>
       </c>
@@ -1057,63 +1197,111 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>367</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>370</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>371</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>372</v>
       </c>
       <c r="B20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>373</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>374</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>375</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>433</v>
       </c>
@@ -1121,196 +1309,340 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>528</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>531</v>
       </c>
       <c r="B26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>533</v>
       </c>
       <c r="B27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>534</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>535</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>537</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>538</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>539</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>540</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>541</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>544</v>
       </c>
       <c r="B35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>555</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>557</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>560</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>564</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>565</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>566</v>
       </c>
       <c r="B41">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>567</v>
       </c>
       <c r="B42">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>568</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>569</v>
       </c>
       <c r="B44">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>570</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>575</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>590</v>
       </c>
       <c r="B47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>603</v>
       </c>
       <c r="B48">
         <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1320,6 +1652,12 @@
       <c r="B49">
         <v>6</v>
       </c>
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
@@ -1328,6 +1666,12 @@
       <c r="B50">
         <v>2</v>
       </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
       <c r="H50" s="4" t="s">
         <v>15</v>
       </c>
@@ -1342,6 +1686,12 @@
       <c r="B51">
         <v>4</v>
       </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
       <c r="G51">
         <v>2</v>
       </c>
@@ -1359,6 +1709,12 @@
       <c r="B52">
         <v>3</v>
       </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" t="s">
+        <v>42</v>
+      </c>
       <c r="G52">
         <v>3</v>
       </c>
@@ -1374,6 +1730,12 @@
       <c r="B53">
         <v>4</v>
       </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s">
+        <v>42</v>
+      </c>
       <c r="G53">
         <v>4</v>
       </c>
@@ -1388,6 +1750,12 @@
       </c>
       <c r="B54">
         <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
       </c>
       <c r="G54">
         <v>5</v>

--- a/infos_filtres.xlsx
+++ b/infos_filtres.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14000" yWindow="0" windowWidth="11600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="3740" yWindow="100" windowWidth="11600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -855,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1303,183 +1303,123 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>433</v>
+        <v>378</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>528</v>
+        <v>381</v>
       </c>
       <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>531</v>
+        <v>401</v>
       </c>
       <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>533</v>
-      </c>
-      <c r="B27">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>534</v>
+        <v>405</v>
       </c>
       <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>535</v>
+        <v>407</v>
       </c>
       <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>537</v>
+        <v>408</v>
       </c>
       <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>538</v>
+        <v>409</v>
       </c>
       <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>539</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" t="s">
-        <v>42</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>540</v>
+        <v>433</v>
       </c>
       <c r="B33">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1488,74 +1428,74 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
         <v>31</v>
@@ -1563,21 +1503,21 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -1591,21 +1531,21 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -1619,41 +1559,41 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>603</v>
+        <v>564</v>
       </c>
       <c r="B48">
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>605</v>
+        <v>565</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s">
         <v>31</v>
@@ -1661,215 +1601,341 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>637</v>
+        <v>567</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51" t="s">
-        <v>3</v>
-      </c>
-      <c r="I51" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>642</v>
+        <v>568</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52">
-        <v>3</v>
-      </c>
-      <c r="H52" s="6"/>
-      <c r="I52" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>644</v>
+        <v>569</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
-      </c>
-      <c r="G53">
-        <v>4</v>
-      </c>
-      <c r="H53" s="3"/>
-      <c r="I53" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>645</v>
+        <v>570</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54">
-        <v>5</v>
-      </c>
-      <c r="H54" s="2"/>
-      <c r="I54" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>647</v>
+        <v>575</v>
       </c>
       <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="G55">
-        <v>6</v>
-      </c>
-      <c r="H55" s="8"/>
-      <c r="I55" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>658</v>
+        <v>590</v>
       </c>
       <c r="B56">
         <v>5</v>
       </c>
-      <c r="G56">
-        <v>7</v>
-      </c>
-      <c r="H56" s="1"/>
-      <c r="I56" t="s">
-        <v>9</v>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>666</v>
+        <v>603</v>
       </c>
       <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="G57">
-        <v>8</v>
-      </c>
-      <c r="H57" s="7"/>
-      <c r="I57" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>670</v>
+        <v>605</v>
       </c>
       <c r="B58">
-        <v>5</v>
-      </c>
-      <c r="G58">
-        <v>9</v>
-      </c>
-      <c r="H58" s="5"/>
-      <c r="I58" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>674</v>
+        <v>613</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>676</v>
+        <v>637</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>678</v>
+        <v>642</v>
       </c>
       <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>683</v>
+        <v>644</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>684</v>
+        <v>645</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63" s="2"/>
+      <c r="I63" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
+        <v>647</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>6</v>
+      </c>
+      <c r="H64" s="8"/>
+      <c r="I64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>658</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>7</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>666</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>8</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>670</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>9</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>674</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>676</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>678</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>683</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>684</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
         <v>702</v>
       </c>
-      <c r="B64">
+      <c r="B73">
         <v>4</v>
       </c>
     </row>

--- a/infos_filtres.xlsx
+++ b/infos_filtres.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="100" windowWidth="11600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -855,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1366,276 +1366,239 @@
       <c r="A32">
         <v>410</v>
       </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>528</v>
+        <v>412</v>
       </c>
       <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>531</v>
-      </c>
-      <c r="B35">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>533</v>
-      </c>
-      <c r="B36">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>534</v>
+        <v>433</v>
       </c>
       <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
         <v>31</v>
@@ -1643,52 +1606,52 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D55" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>33</v>
@@ -1699,243 +1662,299 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>605</v>
+        <v>570</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>613</v>
+        <v>575</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>637</v>
+        <v>590</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60">
-        <v>2</v>
-      </c>
-      <c r="H60" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>642</v>
+        <v>603</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D61" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61">
-        <v>3</v>
-      </c>
-      <c r="H61" s="6"/>
-      <c r="I61" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>644</v>
+        <v>605</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
-      </c>
-      <c r="G62">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3"/>
-      <c r="I62" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>645</v>
+        <v>613</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63">
-        <v>5</v>
-      </c>
-      <c r="H63" s="2"/>
-      <c r="I63" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64" t="s">
         <v>3</v>
       </c>
-      <c r="G64">
-        <v>6</v>
-      </c>
-      <c r="H64" s="8"/>
       <c r="I64" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s">
+        <v>42</v>
       </c>
       <c r="G65">
-        <v>7</v>
-      </c>
-      <c r="H65" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="H65" s="6"/>
       <c r="I65" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" t="s">
+        <v>42</v>
       </c>
       <c r="G66">
-        <v>8</v>
-      </c>
-      <c r="H66" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="H66" s="3"/>
       <c r="I66" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="B67">
         <v>5</v>
       </c>
+      <c r="C67" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
       <c r="G67">
-        <v>9</v>
-      </c>
-      <c r="H67" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="H67" s="2"/>
       <c r="I67" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="G68">
         <v>6</v>
+      </c>
+      <c r="H68" s="8"/>
+      <c r="I68" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <v>7</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="B70">
         <v>5</v>
+      </c>
+      <c r="G70">
+        <v>8</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G71">
+        <v>9</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
+        <v>676</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>678</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>683</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>684</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
         <v>702</v>
       </c>
-      <c r="B73">
+      <c r="B77">
         <v>4</v>
       </c>
     </row>

--- a/infos_filtres.xlsx
+++ b/infos_filtres.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="43">
   <si>
     <t>Couleur</t>
   </si>
@@ -855,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1308,6 +1308,12 @@
       <c r="B24">
         <v>6</v>
       </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
@@ -1316,6 +1322,12 @@
       <c r="B25">
         <v>8</v>
       </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
@@ -1324,11 +1336,26 @@
       <c r="B26">
         <v>3</v>
       </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
         <v>402</v>
       </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
@@ -1337,6 +1364,12 @@
       <c r="B28">
         <v>7</v>
       </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
@@ -1345,6 +1378,12 @@
       <c r="B29">
         <v>6</v>
       </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
@@ -1353,6 +1392,12 @@
       <c r="B30">
         <v>4</v>
       </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
@@ -1361,6 +1406,12 @@
       <c r="B31">
         <v>4</v>
       </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
@@ -1369,6 +1420,12 @@
       <c r="B32">
         <v>3</v>
       </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
@@ -1377,6 +1434,12 @@
       <c r="B33">
         <v>4</v>
       </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
@@ -1385,88 +1448,125 @@
       <c r="B34">
         <v>4</v>
       </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>413</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>414</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>433</v>
-      </c>
-      <c r="B37">
-        <v>9</v>
+        <v>415</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>528</v>
+        <v>433</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B40">
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1475,15 +1575,15 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -1494,91 +1594,91 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
         <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1587,32 +1687,32 @@
         <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
         <v>31</v>
@@ -1620,10 +1720,10 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>33</v>
@@ -1634,7 +1734,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -1648,7 +1748,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B56">
         <v>7</v>
@@ -1662,24 +1762,24 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B57">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>35</v>
@@ -1690,272 +1790,346 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>34</v>
-      </c>
-      <c r="G64">
-        <v>2</v>
-      </c>
-      <c r="H64" t="s">
-        <v>3</v>
-      </c>
-      <c r="I64" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65" t="s">
         <v>3</v>
       </c>
-      <c r="C65" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" t="s">
-        <v>42</v>
-      </c>
-      <c r="G65">
-        <v>3</v>
-      </c>
-      <c r="H65" s="6"/>
       <c r="I65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
         <v>42</v>
       </c>
       <c r="G66">
-        <v>4</v>
-      </c>
-      <c r="H66" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="H66" s="6"/>
       <c r="I66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
         <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G67">
-        <v>5</v>
-      </c>
-      <c r="H67" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="H67" s="3"/>
       <c r="I67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" t="s">
+        <v>31</v>
       </c>
       <c r="G68">
-        <v>6</v>
-      </c>
-      <c r="H68" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="H68" s="2"/>
       <c r="I68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" t="s">
+        <v>42</v>
       </c>
       <c r="G69">
-        <v>7</v>
-      </c>
-      <c r="H69" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="H69" s="8"/>
       <c r="I69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B70">
         <v>5</v>
       </c>
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" t="s">
+        <v>31</v>
+      </c>
       <c r="G70">
-        <v>8</v>
-      </c>
-      <c r="H70" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="H70" s="1"/>
       <c r="I70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
+      <c r="C71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" t="s">
+        <v>42</v>
+      </c>
       <c r="G71">
-        <v>9</v>
-      </c>
-      <c r="H71" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="H71" s="7"/>
       <c r="I71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72">
+        <v>9</v>
+      </c>
+      <c r="H72" s="5"/>
+      <c r="I72" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B76">
         <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
+        <v>684</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
         <v>702</v>
       </c>
-      <c r="B77">
-        <v>4</v>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/infos_filtres.xlsx
+++ b/infos_filtres.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="14480" yWindow="0" windowWidth="11120" windowHeight="13880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="42">
   <si>
     <t>Couleur</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>154, 205, 50</t>
-  </si>
-  <si>
-    <t>XX</t>
   </si>
   <si>
     <t>Direction du vent</t>
@@ -857,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -881,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>15</v>
@@ -907,10 +904,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -937,10 +934,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -965,10 +962,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -993,10 +990,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1021,10 +1018,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1049,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -1074,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -1092,10 +1089,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -1113,10 +1110,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1127,10 +1124,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1141,10 +1138,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1155,10 +1152,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1169,10 +1166,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1183,10 +1180,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1197,10 +1194,10 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1211,10 +1208,10 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1225,10 +1222,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1239,10 +1236,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1253,10 +1250,10 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1267,10 +1264,10 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1281,10 +1278,10 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1295,10 +1292,10 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1309,10 +1306,10 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1323,10 +1320,10 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1337,10 +1334,10 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1351,10 +1348,10 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1365,10 +1362,10 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1379,10 +1376,10 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1393,10 +1390,10 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1407,10 +1404,10 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1421,10 +1418,10 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1435,10 +1432,10 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1449,10 +1446,10 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1463,10 +1460,10 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1477,10 +1474,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1488,10 +1485,10 @@
         <v>415</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1502,10 +1499,10 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1516,10 +1513,10 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1530,10 +1527,10 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1544,10 +1541,10 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1558,10 +1555,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1572,10 +1569,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1586,10 +1583,10 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
         <v>29</v>
-      </c>
-      <c r="D44" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1600,10 +1597,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
         <v>29</v>
-      </c>
-      <c r="D45" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1614,10 +1611,10 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1628,10 +1625,10 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1642,10 +1639,10 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1656,10 +1653,10 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1670,10 +1667,10 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
         <v>29</v>
-      </c>
-      <c r="D50" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1684,10 +1681,10 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1698,10 +1695,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1712,10 +1709,10 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1726,10 +1723,10 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1740,10 +1737,10 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -1754,10 +1751,10 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -1768,10 +1765,10 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -1782,10 +1779,10 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -1796,10 +1793,10 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -1810,10 +1807,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -1824,10 +1821,10 @@
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -1838,10 +1835,10 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -1852,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -1866,10 +1863,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" t="s">
         <v>29</v>
-      </c>
-      <c r="D64" t="s">
-        <v>30</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>15</v>
@@ -1886,10 +1883,10 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -1909,10 +1906,10 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -1930,10 +1927,10 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -1951,10 +1948,10 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G68">
         <v>5</v>
@@ -1972,10 +1969,10 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G69">
         <v>6</v>
@@ -1993,10 +1990,10 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G70">
         <v>7</v>
@@ -2014,10 +2011,10 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G71">
         <v>8</v>
@@ -2035,10 +2032,10 @@
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72">
         <v>9</v>
@@ -2056,10 +2053,10 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2070,10 +2067,10 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2084,10 +2081,10 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2098,10 +2095,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2112,10 +2109,10 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2126,10 +2123,10 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/infos_filtres.xlsx
+++ b/infos_filtres.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="46">
   <si>
     <t>Couleur</t>
   </si>
@@ -129,9 +129,6 @@
     <t>MTD</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
@@ -145,6 +142,21 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>NNE</t>
+  </si>
+  <si>
+    <t>ENE</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>ESE</t>
+  </si>
+  <si>
+    <t>NNO</t>
   </si>
 </sst>
 </file>
@@ -854,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -907,7 +919,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -937,7 +949,7 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -965,7 +977,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -993,7 +1005,7 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1021,7 +1033,7 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1048,6 +1060,9 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
       <c r="G7">
         <v>7</v>
       </c>
@@ -1073,6 +1088,9 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
       <c r="G8">
         <v>8</v>
       </c>
@@ -1092,7 +1110,7 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -1141,7 +1159,7 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1155,7 +1173,7 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1169,7 +1187,7 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1183,7 +1201,7 @@
         <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1197,7 +1215,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1208,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
@@ -1225,7 +1243,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1236,10 +1254,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1267,7 +1285,7 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1281,7 +1299,7 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1295,7 +1313,7 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1323,7 +1341,7 @@
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1334,7 +1352,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -1348,10 +1366,10 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1365,7 +1383,7 @@
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1379,7 +1397,7 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1393,7 +1411,7 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1407,7 +1425,7 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1421,7 +1439,7 @@
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1435,7 +1453,7 @@
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1449,7 +1467,7 @@
         <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1463,7 +1481,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1474,10 +1492,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1485,10 +1503,10 @@
         <v>415</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1513,10 +1531,10 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1530,7 +1548,7 @@
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1544,7 +1562,7 @@
         <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1558,7 +1576,7 @@
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1572,7 +1590,7 @@
         <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1586,7 +1604,7 @@
         <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1600,7 +1618,7 @@
         <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1611,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
         <v>41</v>
@@ -1625,7 +1643,7 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s">
         <v>30</v>
@@ -1639,10 +1657,10 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1656,7 +1674,7 @@
         <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1670,7 +1688,7 @@
         <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1684,7 +1702,7 @@
         <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1709,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
         <v>30</v>
@@ -1740,7 +1758,7 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -1754,7 +1772,7 @@
         <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -1768,7 +1786,7 @@
         <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -1824,7 +1842,7 @@
         <v>32</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -1838,7 +1856,7 @@
         <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -1849,7 +1867,7 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
         <v>30</v>
@@ -1866,7 +1884,7 @@
         <v>28</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>15</v>
@@ -1930,7 +1948,7 @@
         <v>31</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -1951,7 +1969,7 @@
         <v>31</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G68">
         <v>5</v>
@@ -2014,7 +2032,7 @@
         <v>28</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>8</v>
@@ -2035,7 +2053,7 @@
         <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G72">
         <v>9</v>
@@ -2056,7 +2074,7 @@
         <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2070,7 +2088,7 @@
         <v>34</v>
       </c>
       <c r="D74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2112,7 +2130,7 @@
         <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2126,7 +2144,7 @@
         <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/infos_filtres.xlsx
+++ b/infos_filtres.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14480" yWindow="0" windowWidth="11120" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="11620" yWindow="0" windowWidth="11120" windowHeight="13880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="46">
   <si>
     <t>Couleur</t>
   </si>
@@ -864,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1525,122 +1525,95 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>528</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
+        <v>454</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>531</v>
-      </c>
-      <c r="B40">
-        <v>9</v>
+        <v>455</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>533</v>
-      </c>
-      <c r="B41">
-        <v>9</v>
+        <v>456</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>534</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>535</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
+        <v>459</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>537</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
+        <v>461</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>538</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
+        <v>462</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>539</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
+        <v>463</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>540</v>
-      </c>
-      <c r="B47">
-        <v>8</v>
+        <v>464</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
@@ -1651,10 +1624,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>541</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
@@ -1663,51 +1633,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:4">
       <c r="A49">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:4">
       <c r="A50">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>533</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
         <v>28</v>
       </c>
-      <c r="D50" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51">
-        <v>557</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>31</v>
-      </c>
       <c r="D51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -1716,387 +1686,329 @@
         <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
-        <v>564</v>
+        <v>535</v>
       </c>
       <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>537</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>538</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>539</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>540</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>541</v>
+      </c>
+      <c r="B58">
         <v>4</v>
       </c>
-      <c r="C53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54">
-        <v>565</v>
-      </c>
-      <c r="B54">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55">
-        <v>566</v>
-      </c>
-      <c r="B55">
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>544</v>
+      </c>
+      <c r="B59">
         <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56">
-        <v>567</v>
-      </c>
-      <c r="B56">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57">
-        <v>568</v>
-      </c>
-      <c r="B57">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58">
-        <v>569</v>
-      </c>
-      <c r="B58">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59">
-        <v>570</v>
-      </c>
-      <c r="B59">
-        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>34</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>557</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
         <v>31</v>
       </c>
-      <c r="D60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61">
-        <v>590</v>
-      </c>
-      <c r="B61">
-        <v>5</v>
-      </c>
-      <c r="C61" t="s">
-        <v>32</v>
-      </c>
       <c r="D61" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
-        <v>603</v>
+        <v>560</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
         <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D63" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:4">
       <c r="A64">
-        <v>613</v>
+        <v>565</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>637</v>
+        <v>566</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
-      </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65" t="s">
-        <v>3</v>
-      </c>
-      <c r="I65" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>642</v>
+        <v>567</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
-      </c>
-      <c r="G66">
-        <v>3</v>
-      </c>
-      <c r="H66" s="6"/>
-      <c r="I66" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>644</v>
+        <v>568</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67">
-        <v>4</v>
-      </c>
-      <c r="H67" s="3"/>
-      <c r="I67" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>645</v>
+        <v>569</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D68" t="s">
-        <v>41</v>
-      </c>
-      <c r="G68">
-        <v>5</v>
-      </c>
-      <c r="H68" s="2"/>
-      <c r="I68" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>647</v>
+        <v>570</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
-      </c>
-      <c r="G69">
-        <v>6</v>
-      </c>
-      <c r="H69" s="8"/>
-      <c r="I69" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>658</v>
+        <v>575</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
         <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70">
-        <v>7</v>
-      </c>
-      <c r="H70" s="1"/>
-      <c r="I70" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>666</v>
+        <v>590</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>30</v>
-      </c>
-      <c r="G71">
-        <v>8</v>
-      </c>
-      <c r="H71" s="7"/>
-      <c r="I71" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>670</v>
+        <v>603</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>44</v>
-      </c>
-      <c r="G72">
-        <v>9</v>
-      </c>
-      <c r="H72" s="5"/>
-      <c r="I72" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>674</v>
+        <v>605</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>676</v>
+        <v>613</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D74" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>678</v>
+        <v>637</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
         <v>32</v>
@@ -2104,13 +2016,22 @@
       <c r="D75" t="s">
         <v>33</v>
       </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75" t="s">
+        <v>3</v>
+      </c>
+      <c r="I75" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>683</v>
+        <v>642</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -2118,10 +2039,17 @@
       <c r="D76" t="s">
         <v>41</v>
       </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>684</v>
+        <v>644</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -2132,18 +2060,200 @@
       <c r="D77" t="s">
         <v>30</v>
       </c>
+      <c r="G77">
+        <v>4</v>
+      </c>
+      <c r="H77" s="3"/>
+      <c r="I77" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
+        <v>645</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>647</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79">
+        <v>6</v>
+      </c>
+      <c r="H79" s="8"/>
+      <c r="I79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>658</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80">
+        <v>7</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>666</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81">
+        <v>8</v>
+      </c>
+      <c r="H81" s="7"/>
+      <c r="I81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>670</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" t="s">
+        <v>44</v>
+      </c>
+      <c r="G82">
+        <v>9</v>
+      </c>
+      <c r="H82" s="5"/>
+      <c r="I82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>674</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>676</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>678</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>683</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>684</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
         <v>702</v>
       </c>
-      <c r="B78">
+      <c r="B88">
         <v>4</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C88" t="s">
         <v>32</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D88" t="s">
         <v>42</v>
       </c>
     </row>

--- a/infos_filtres.xlsx
+++ b/infos_filtres.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="46">
   <si>
     <t>Couleur</t>
   </si>
@@ -864,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1635,487 +1635,457 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>528</v>
-      </c>
-      <c r="B49">
-        <v>5</v>
+        <v>466</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>531</v>
-      </c>
-      <c r="B50">
-        <v>9</v>
+        <v>467</v>
       </c>
       <c r="C50" t="s">
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>533</v>
-      </c>
-      <c r="B51">
-        <v>9</v>
+        <v>468</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D65" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B68">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D68" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D69" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D73" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>613</v>
+        <v>590</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>637</v>
+        <v>603</v>
       </c>
       <c r="B75">
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D75" t="s">
-        <v>33</v>
-      </c>
-      <c r="G75">
-        <v>2</v>
-      </c>
-      <c r="H75" t="s">
-        <v>3</v>
-      </c>
-      <c r="I75" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>642</v>
+        <v>605</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
-      </c>
-      <c r="G76">
-        <v>3</v>
-      </c>
-      <c r="H76" s="6"/>
-      <c r="I76" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
-      </c>
-      <c r="G77">
-        <v>4</v>
-      </c>
-      <c r="H77" s="3"/>
-      <c r="I77" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G78">
-        <v>5</v>
-      </c>
-      <c r="H78" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="H78" t="s">
+        <v>3</v>
+      </c>
       <c r="I78" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
         <v>41</v>
       </c>
       <c r="G79">
-        <v>6</v>
-      </c>
-      <c r="H79" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="H79" s="6"/>
       <c r="I79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
         <v>31</v>
@@ -2124,86 +2094,100 @@
         <v>30</v>
       </c>
       <c r="G80">
-        <v>7</v>
-      </c>
-      <c r="H80" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="H80" s="3"/>
       <c r="I80" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="B81">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D81" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G81">
-        <v>8</v>
-      </c>
-      <c r="H81" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="H81" s="2"/>
       <c r="I81" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>670</v>
+        <v>647</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D82" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G82">
-        <v>9</v>
-      </c>
-      <c r="H82" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="H82" s="8"/>
       <c r="I82" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="G83">
+        <v>7</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
         <v>30</v>
       </c>
+      <c r="G84">
+        <v>8</v>
+      </c>
+      <c r="H84" s="7"/>
+      <c r="I84" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -2212,32 +2196,39 @@
         <v>32</v>
       </c>
       <c r="D85" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="G85">
+        <v>9</v>
+      </c>
+      <c r="H85" s="5"/>
+      <c r="I85" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D87" t="s">
         <v>30</v>
@@ -2245,15 +2236,57 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>702</v>
+        <v>678</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>32</v>
       </c>
       <c r="D88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>683</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>684</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>702</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" t="s">
         <v>42</v>
       </c>
     </row>
